--- a/docs/Sprint5_Backlog.xlsx
+++ b/docs/Sprint5_Backlog.xlsx
@@ -69,9 +69,6 @@
     <t>As an Unregistered User I can view the Homepage</t>
   </si>
   <si>
-    <t>As an Unregistered User I can view the Register/Login</t>
-  </si>
-  <si>
     <t xml:space="preserve">As an Investor I can View my Companies </t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>As a Lawyer/Reviewer I can leave comments on a reserved Form</t>
+  </si>
+  <si>
+    <t>As an Unregistered User I can  Register/Login</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -584,7 +584,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>13</v>
@@ -604,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -624,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -644,7 +644,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -664,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -684,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -704,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -724,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -744,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -764,7 +764,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -784,7 +784,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -804,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -824,7 +824,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <v>5</v>
@@ -844,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -864,7 +864,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -884,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>5</v>

--- a/docs/Sprint5_Backlog.xlsx
+++ b/docs/Sprint5_Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>User story</t>
   </si>
@@ -78,9 +78,6 @@
     <t>As an Investor I can Track my case</t>
   </si>
   <si>
-    <t>As an Investor I can Pay Form Fees</t>
-  </si>
-  <si>
     <t>As an Investor I can Edit my Profile</t>
   </si>
   <si>
@@ -103,15 +100,6 @@
   </si>
   <si>
     <t>As a User I can navigate through a footer</t>
-  </si>
-  <si>
-    <t>As a User I can View the Contact Us Page</t>
-  </si>
-  <si>
-    <t>As a User I can View the About Us Page</t>
-  </si>
-  <si>
-    <t>As a Lawyer/Investor I can Edit a rejected form</t>
   </si>
   <si>
     <t>As a Lawyer/Reviewer I can Review my reserved Forms</t>
@@ -127,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,14 +127,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,12 +158,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -621,19 +600,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -641,7 +620,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -650,7 +629,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -661,27 +640,27 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -690,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -701,7 +680,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -716,44 +695,44 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -761,7 +740,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -770,18 +749,18 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -790,18 +769,18 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -810,92 +789,12 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
         <v>10</v>
       </c>
     </row>
